--- a/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D6B863-E423-4D0B-BB94-FB03A4BE1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E9637-C5F8-4C15-B582-EEE998643D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F9C6BE-9EB5-4313-85A9-3F68FE102B8C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48576065-4971-43B1-803F-5020097479E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="532">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,68%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>90,32%</t>
+    <t>89,36%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -134,1486 +134,1507 @@
     <t>1,07%</t>
   </si>
   <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD45AA-0CBD-4C52-8463-979090559BF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19A6F69-5CDB-4C55-8314-FC5CB3048C58}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2484,7 +2505,7 @@
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>199263</v>
+        <v>199264</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2535,7 +2556,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2803,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2839,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2836,10 +2857,10 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2848,13 +2869,13 @@
         <v>4546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2890,13 @@
         <v>99804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -2884,13 +2905,13 @@
         <v>130906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>233</v>
@@ -2899,13 +2920,13 @@
         <v>230710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2982,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2973,13 +2994,13 @@
         <v>1687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2988,13 +3009,13 @@
         <v>5017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3003,13 +3024,13 @@
         <v>6705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3045,13 @@
         <v>4108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3039,13 +3060,13 @@
         <v>5176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -3054,13 +3075,13 @@
         <v>9284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3096,13 @@
         <v>131421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3090,13 +3111,13 @@
         <v>198584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>339</v>
@@ -3105,13 +3126,13 @@
         <v>330007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3200,13 @@
         <v>7245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3194,13 +3215,13 @@
         <v>19124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3209,13 +3230,13 @@
         <v>26369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3251,13 @@
         <v>18903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3248,10 +3269,10 @@
         <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3260,13 +3281,13 @@
         <v>36668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3302,13 @@
         <v>476318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -3296,13 +3317,13 @@
         <v>639952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>1121</v>
@@ -3311,13 +3332,13 @@
         <v>1116271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3394,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05C2ECF-33EF-46F2-8C70-CA53AE177EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108D53F0-0424-4761-BC3A-1310238F235E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,7 +3432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3518,13 +3539,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3533,13 +3554,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3548,13 +3569,13 @@
         <v>3269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3590,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3605,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3641,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3635,10 +3656,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3650,13 +3671,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3745,13 @@
         <v>4239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3739,13 +3760,13 @@
         <v>3246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3754,13 +3775,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3796,13 @@
         <v>5356</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3790,13 +3811,13 @@
         <v>8361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3805,13 +3826,13 @@
         <v>13717</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3847,13 @@
         <v>108754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -3841,13 +3862,13 @@
         <v>129985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3856,13 +3877,13 @@
         <v>238740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3951,13 @@
         <v>6277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3945,13 +3966,13 @@
         <v>8856</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3960,13 +3981,13 @@
         <v>15134</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +4002,13 @@
         <v>13259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3996,13 +4017,13 @@
         <v>15496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -4011,13 +4032,13 @@
         <v>28755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4053,13 @@
         <v>135342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -4047,13 +4068,13 @@
         <v>167067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -4062,13 +4083,13 @@
         <v>302409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4157,13 @@
         <v>4638</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4151,13 +4172,13 @@
         <v>7677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4166,13 +4187,13 @@
         <v>12315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4208,13 @@
         <v>6495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4202,13 +4223,13 @@
         <v>10607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4217,13 +4238,13 @@
         <v>17102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4259,13 @@
         <v>92465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -4253,13 +4274,13 @@
         <v>122735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M18" s="7">
         <v>194</v>
@@ -4268,13 +4289,13 @@
         <v>215200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4351,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4342,13 +4363,13 @@
         <v>3089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4357,13 +4378,13 @@
         <v>9312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4372,13 +4393,13 @@
         <v>12401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4414,13 @@
         <v>11352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4408,13 +4429,13 @@
         <v>11395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4423,13 +4444,13 @@
         <v>22747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4465,13 @@
         <v>147172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -4459,13 +4480,13 @@
         <v>223043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4474,13 +4495,13 @@
         <v>370215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4569,13 @@
         <v>19209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -4563,13 +4584,13 @@
         <v>31395</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4578,13 +4599,13 @@
         <v>50604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4620,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -4614,13 +4635,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -4629,13 +4650,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4671,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -4665,13 +4686,13 @@
         <v>665721</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1079</v>
@@ -4680,13 +4701,13 @@
         <v>1169687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4763,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4763,7 +4784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BFE909-0E26-4F1A-A0D3-B7F8FF243A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4785965-FB1F-428F-A62E-16B9E85AE2AE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4780,7 +4801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4887,13 +4908,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4908,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4917,13 +4938,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4953,13 +4974,13 @@
         <v>1986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4968,13 +4989,13 @@
         <v>1986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,10 +5010,10 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5004,10 +5025,10 @@
         <v>21453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5019,13 +5040,13 @@
         <v>41503</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5114,13 @@
         <v>2555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5108,13 +5129,13 @@
         <v>2320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5123,13 +5144,13 @@
         <v>4875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5165,13 @@
         <v>1691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5159,13 +5180,13 @@
         <v>7244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5174,13 +5195,13 @@
         <v>8936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5216,13 @@
         <v>110800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -5210,13 +5231,13 @@
         <v>140387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
@@ -5225,13 +5246,13 @@
         <v>251187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5320,13 @@
         <v>4343</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5314,13 +5335,13 @@
         <v>2011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5329,13 +5350,13 @@
         <v>6354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5371,13 @@
         <v>4160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5365,13 +5386,13 @@
         <v>15492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5380,13 +5401,13 @@
         <v>19653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5422,13 @@
         <v>156437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5416,13 +5437,13 @@
         <v>201660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -5431,13 +5452,13 @@
         <v>358097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5526,13 @@
         <v>1050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5520,13 +5541,13 @@
         <v>7296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5535,13 +5556,13 @@
         <v>8346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5577,13 @@
         <v>2552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5571,13 +5592,13 @@
         <v>8702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5586,13 +5607,13 @@
         <v>11254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,10 +5628,10 @@
         <v>111433</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>372</v>
@@ -5699,7 +5720,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5717,7 +5738,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5726,13 +5747,13 @@
         <v>3842</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5762,10 +5783,10 @@
         <v>4784</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>387</v>
@@ -5777,13 +5798,13 @@
         <v>8049</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5917,13 +5938,13 @@
         <v>10378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>59</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5932,13 +5953,13 @@
         <v>15468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5947,13 +5968,13 @@
         <v>25847</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5989,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -5983,13 +6004,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -5998,13 +6019,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6040,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -6037,10 +6058,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -6049,13 +6070,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,7 +6132,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6132,7 +6153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230F4902-385F-4FFD-8034-D193B79D98EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D1932E-5CEC-4B29-8380-3EC5A3A5F895}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6149,7 +6170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6262,7 +6283,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6271,13 +6292,13 @@
         <v>1208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6286,13 +6307,13 @@
         <v>1208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6328,13 @@
         <v>1091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6322,13 +6343,13 @@
         <v>2811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6337,13 +6358,13 @@
         <v>3901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,10 +6379,10 @@
         <v>28573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6373,13 +6394,13 @@
         <v>41403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>147</v>
@@ -6388,13 +6409,13 @@
         <v>69976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6483,13 @@
         <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6477,13 +6498,13 @@
         <v>5250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -6492,13 +6513,13 @@
         <v>7066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6534,13 @@
         <v>5245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6528,13 +6549,13 @@
         <v>6105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -6546,10 +6567,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>130</v>
+        <v>454</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>449</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6585,13 @@
         <v>117916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -6579,13 +6600,13 @@
         <v>135864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -6594,13 +6615,13 @@
         <v>253780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6689,13 @@
         <v>1750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>368</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6683,13 +6704,13 @@
         <v>8249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6698,13 +6719,13 @@
         <v>9999</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6740,13 @@
         <v>4679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6734,13 +6755,13 @@
         <v>13578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>465</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -6749,13 +6770,13 @@
         <v>18258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6791,13 @@
         <v>167416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>410</v>
@@ -6785,13 +6806,13 @@
         <v>221068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -6800,13 +6821,13 @@
         <v>388484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6895,13 @@
         <v>943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6889,13 +6910,13 @@
         <v>4888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6904,13 +6925,13 @@
         <v>5830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>129</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6946,13 @@
         <v>1841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6940,13 +6961,13 @@
         <v>10400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>443</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -6958,10 +6979,10 @@
         <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6997,13 @@
         <v>145406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H18" s="7">
         <v>266</v>
@@ -6991,13 +7012,13 @@
         <v>265827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -7006,13 +7027,13 @@
         <v>411234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>493</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7089,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7080,13 +7101,13 @@
         <v>2698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>176</v>
+        <v>499</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7095,13 +7116,13 @@
         <v>7106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -7110,13 +7131,13 @@
         <v>9804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7152,13 @@
         <v>2776</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7149,10 +7170,10 @@
         <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -7161,13 +7182,13 @@
         <v>14607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7203,13 @@
         <v>214769</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>495</v>
@@ -7197,13 +7218,13 @@
         <v>289701</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -7212,13 +7233,13 @@
         <v>504471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7307,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>402</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -7301,13 +7322,13 @@
         <v>26700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>512</v>
+        <v>59</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -7316,13 +7337,13 @@
         <v>33907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>465</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7358,13 @@
         <v>15632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7352,13 +7373,13 @@
         <v>44724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -7367,13 +7388,13 @@
         <v>60357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7409,13 @@
         <v>674081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>520</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H26" s="7">
         <v>1581</v>
@@ -7403,13 +7424,13 @@
         <v>953863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>2571</v>
@@ -7418,13 +7439,13 @@
         <v>1627944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,7 +7501,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E9637-C5F8-4C15-B582-EEE998643D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8953B599-6125-49CF-8A39-3A544F5BB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48576065-4971-43B1-803F-5020097479E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B310641-388F-4F45-A23A-B8115D12FFF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="529">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -95,13 +95,13 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>19,96%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>10,64%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,22 +119,22 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>80,04%</t>
+    <t>80,17%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -143,1486 +143,1477 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>8,83%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
   </si>
   <si>
     <t>95,42%</t>
@@ -2046,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19A6F69-5CDB-4C55-8314-FC5CB3048C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369847A2-2183-4A8B-B67A-FA57F80D2090}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2496,7 @@
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>199264</v>
+        <v>199263</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -2556,7 +2547,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -3000,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3009,13 +3000,13 @@
         <v>5017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3024,13 +3015,13 @@
         <v>6705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,10 +3036,10 @@
         <v>4108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>115</v>
@@ -3063,10 +3054,10 @@
         <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -3075,13 +3066,13 @@
         <v>9284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3087,13 @@
         <v>131421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3111,13 +3102,13 @@
         <v>198584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>339</v>
@@ -3126,13 +3117,13 @@
         <v>330007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,13 +3191,13 @@
         <v>7245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3215,13 +3206,13 @@
         <v>19124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3230,13 +3221,13 @@
         <v>26369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3242,13 @@
         <v>18903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3269,10 +3260,10 @@
         <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3281,13 +3272,13 @@
         <v>36668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3293,13 @@
         <v>476318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -3317,13 +3308,13 @@
         <v>639952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1121</v>
@@ -3332,13 +3323,13 @@
         <v>1116271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3385,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108D53F0-0424-4761-BC3A-1310238F235E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256764D5-D492-4D44-B1B0-266830A44487}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3432,7 +3423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3539,13 +3530,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3554,13 +3545,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3569,13 +3560,13 @@
         <v>3269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3611,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3626,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,10 +3632,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3656,10 +3647,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3671,13 +3662,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3736,13 @@
         <v>4239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3760,13 +3751,13 @@
         <v>3246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3775,13 +3766,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3787,13 @@
         <v>5356</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3811,13 +3802,13 @@
         <v>8361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3826,13 +3817,13 @@
         <v>13717</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,10 +3960,10 @@
         <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3981,13 +3972,13 @@
         <v>15134</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3993,13 @@
         <v>13259</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4017,13 +4008,13 @@
         <v>15496</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -4032,13 +4023,13 @@
         <v>28755</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4044,13 @@
         <v>135342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -4068,13 +4059,13 @@
         <v>167067</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -4083,13 +4074,13 @@
         <v>302409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4148,13 @@
         <v>4638</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4172,10 +4163,10 @@
         <v>7677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>229</v>
@@ -4190,10 +4181,10 @@
         <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4199,13 @@
         <v>6495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4223,13 +4214,13 @@
         <v>10607</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4238,13 +4229,13 @@
         <v>17102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4250,13 @@
         <v>92465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -4274,13 +4265,13 @@
         <v>122735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>194</v>
@@ -4289,13 +4280,13 @@
         <v>215200</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4354,13 @@
         <v>3089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4378,13 +4369,13 @@
         <v>9312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4393,13 +4384,13 @@
         <v>12401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4405,13 @@
         <v>11352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4429,13 +4420,13 @@
         <v>11395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4444,13 +4435,13 @@
         <v>22747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4456,13 @@
         <v>147172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -4480,13 +4471,13 @@
         <v>223043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4495,13 +4486,13 @@
         <v>370215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4560,13 @@
         <v>19209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -4584,13 +4575,13 @@
         <v>31395</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4599,13 +4590,13 @@
         <v>50604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4611,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -4635,13 +4626,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -4650,13 +4641,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4662,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -4686,13 +4677,13 @@
         <v>665721</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>1079</v>
@@ -4701,13 +4692,13 @@
         <v>1169687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,7 +4754,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4784,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4785965-FB1F-428F-A62E-16B9E85AE2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDFFEB9-3531-42EB-8F40-378621BE1DA1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4801,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4908,13 +4899,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4929,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4938,13 +4929,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4974,13 +4965,13 @@
         <v>1986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4989,13 +4980,13 @@
         <v>1986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,10 +5001,10 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5025,10 +5016,10 @@
         <v>21453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5040,13 +5031,13 @@
         <v>41503</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5105,13 @@
         <v>2555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5129,13 +5120,13 @@
         <v>2320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5144,13 +5135,13 @@
         <v>4875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5156,13 @@
         <v>1691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>120</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5180,13 +5171,13 @@
         <v>7244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5195,13 +5186,13 @@
         <v>8936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5207,13 @@
         <v>110800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -5231,28 +5222,28 @@
         <v>140387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>251187</v>
+        <v>251188</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,7 +5285,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5320,13 +5311,13 @@
         <v>4343</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5335,13 +5326,13 @@
         <v>2011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5350,13 +5341,13 @@
         <v>6354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5362,13 @@
         <v>4160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5386,13 +5377,13 @@
         <v>15492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5401,13 +5392,13 @@
         <v>19653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5413,13 @@
         <v>156437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5437,13 +5428,13 @@
         <v>201660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -5452,13 +5443,13 @@
         <v>358097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5517,13 @@
         <v>1050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5541,13 +5532,13 @@
         <v>7296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5556,13 +5547,13 @@
         <v>8346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5568,13 @@
         <v>2552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5592,13 +5583,13 @@
         <v>8702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5607,13 +5598,13 @@
         <v>11254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5619,13 @@
         <v>111433</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -5643,13 +5634,13 @@
         <v>126599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -5658,13 +5649,13 @@
         <v>238031</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5723,13 @@
         <v>791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5747,13 +5738,13 @@
         <v>3842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>39</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5762,13 +5753,13 @@
         <v>4634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5774,13 @@
         <v>4784</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>382</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5798,13 +5789,13 @@
         <v>8049</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5813,13 +5804,13 @@
         <v>12833</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5825,13 @@
         <v>169043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -5849,13 +5840,13 @@
         <v>230889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>373</v>
@@ -5864,13 +5855,13 @@
         <v>399933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5929,13 @@
         <v>10378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>403</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5953,13 +5944,13 @@
         <v>15468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5971,10 +5962,10 @@
         <v>94</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +5980,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -6004,13 +5995,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -6019,13 +6010,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +6031,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -6058,10 +6049,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -6070,13 +6061,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +6123,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6153,7 +6144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D1932E-5CEC-4B29-8380-3EC5A3A5F895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D1286B-66EE-47ED-BB99-8A321048C447}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6170,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6283,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6292,13 +6283,13 @@
         <v>1208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6307,13 +6298,13 @@
         <v>1208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6319,13 @@
         <v>1091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6343,13 +6334,13 @@
         <v>2811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6358,13 +6349,13 @@
         <v>3901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,10 +6370,10 @@
         <v>28573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6394,13 +6385,13 @@
         <v>41403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>147</v>
@@ -6409,13 +6400,13 @@
         <v>69976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6474,13 @@
         <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6498,13 +6489,13 @@
         <v>5250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>444</v>
+        <v>71</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -6513,13 +6504,13 @@
         <v>7066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6525,13 @@
         <v>5245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>450</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6549,13 +6540,13 @@
         <v>6105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -6567,10 +6558,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6576,13 @@
         <v>117916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -6600,13 +6591,13 @@
         <v>135864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -6615,13 +6606,13 @@
         <v>253780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6680,13 @@
         <v>1750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6704,13 +6695,13 @@
         <v>8249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6719,13 +6710,13 @@
         <v>9999</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6731,13 @@
         <v>4679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6755,13 +6746,13 @@
         <v>13578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -6770,13 +6761,13 @@
         <v>18258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6782,13 @@
         <v>167416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H14" s="7">
         <v>410</v>
@@ -6806,13 +6797,13 @@
         <v>221068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -6821,13 +6812,13 @@
         <v>388484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6886,13 @@
         <v>943</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6910,13 +6901,13 @@
         <v>4888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6925,13 +6916,13 @@
         <v>5830</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6937,13 @@
         <v>1841</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6961,13 +6952,13 @@
         <v>10400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -6979,10 +6970,10 @@
         <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6988,13 @@
         <v>145406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>266</v>
@@ -7012,13 +7003,13 @@
         <v>265827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -7027,13 +7018,13 @@
         <v>411234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,10 +7095,10 @@
         <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7116,13 +7107,13 @@
         <v>7106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -7131,13 +7122,13 @@
         <v>9804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7143,13 @@
         <v>2776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7170,10 +7161,10 @@
         <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -7182,13 +7173,13 @@
         <v>14607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7194,13 @@
         <v>214769</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>495</v>
@@ -7218,13 +7209,13 @@
         <v>289701</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -7233,13 +7224,13 @@
         <v>504471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7298,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>517</v>
+        <v>225</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -7322,13 +7313,13 @@
         <v>26700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>59</v>
+        <v>512</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -7337,13 +7328,13 @@
         <v>33907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7349,13 @@
         <v>15632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7373,13 +7364,13 @@
         <v>44724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -7388,13 +7379,13 @@
         <v>60357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>208</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7400,13 @@
         <v>674081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>1581</v>
@@ -7424,13 +7415,13 @@
         <v>953863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>2571</v>
@@ -7439,13 +7430,13 @@
         <v>1627944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,7 +7492,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8953B599-6125-49CF-8A39-3A544F5BB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA6D938-ECB8-4993-AE30-57E719638A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B310641-388F-4F45-A23A-B8115D12FFF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9B6E94E-8900-4D93-9F5D-B22496D1213E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="525">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>19,83%</t>
+    <t>19,96%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>80,17%</t>
+    <t>80,04%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>88,94%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,7 +134,7 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,83%</t>
+    <t>5,43%</t>
   </si>
   <si>
     <t>3,51%</t>
@@ -143,1489 +143,1477 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>8,83%</t>
+    <t>8,14%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>95,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369847A2-2183-4A8B-B67A-FA57F80D2090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2B90CB-65C4-42CA-8CEF-D0BB42579E33}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2815,7 +2803,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2818,13 @@
         <v>1830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2848,10 +2836,10 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2860,13 +2848,13 @@
         <v>4546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2869,13 @@
         <v>99804</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -2896,13 +2884,13 @@
         <v>130906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>233</v>
@@ -2911,13 +2899,13 @@
         <v>230710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2961,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2985,13 +2973,13 @@
         <v>1687</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3000,13 +2988,13 @@
         <v>5017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3015,10 +3003,10 @@
         <v>6705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>70</v>
@@ -3036,13 +3024,13 @@
         <v>4108</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -3051,13 +3039,13 @@
         <v>5176</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -3066,13 +3054,13 @@
         <v>9284</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3075,13 @@
         <v>131421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3102,13 +3090,13 @@
         <v>198584</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>339</v>
@@ -3117,13 +3105,13 @@
         <v>330007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3179,13 @@
         <v>7245</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3206,13 +3194,13 @@
         <v>19124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3221,13 +3209,13 @@
         <v>26369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3230,13 @@
         <v>18903</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3260,10 +3248,10 @@
         <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3272,13 +3260,13 @@
         <v>36668</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3281,13 @@
         <v>476318</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -3308,13 +3296,13 @@
         <v>639952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>1121</v>
@@ -3323,13 +3311,13 @@
         <v>1116271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,7 +3373,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256764D5-D492-4D44-B1B0-266830A44487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7A8005-F279-4498-B7F5-AA66B93EB08C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3423,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3530,13 +3518,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3545,13 +3533,13 @@
         <v>2303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3560,13 +3548,13 @@
         <v>3269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3602,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3617,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,10 +3620,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3647,10 +3635,10 @@
         <v>22891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3662,13 +3650,13 @@
         <v>43123</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3724,13 @@
         <v>4239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3751,13 +3739,13 @@
         <v>3246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3766,13 +3754,13 @@
         <v>7485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3775,13 @@
         <v>5356</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3802,13 +3790,13 @@
         <v>8361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -3817,13 +3805,13 @@
         <v>13717</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3826,13 @@
         <v>108754</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -3853,13 +3841,13 @@
         <v>129985</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3868,13 +3856,13 @@
         <v>238740</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3930,13 @@
         <v>6277</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3957,13 +3945,13 @@
         <v>8856</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -3972,13 +3960,13 @@
         <v>15134</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3981,13 @@
         <v>13259</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4008,13 +3996,13 @@
         <v>15496</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -4023,13 +4011,13 @@
         <v>28755</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4032,13 @@
         <v>135342</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -4059,13 +4047,13 @@
         <v>167067</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -4074,13 +4062,13 @@
         <v>302409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4136,13 @@
         <v>4638</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4163,13 +4151,13 @@
         <v>7677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4178,13 +4166,13 @@
         <v>12315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4187,13 @@
         <v>6495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4214,13 +4202,13 @@
         <v>10607</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4229,13 +4217,13 @@
         <v>17102</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4238,13 @@
         <v>92465</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>113</v>
@@ -4265,13 +4253,13 @@
         <v>122735</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M18" s="7">
         <v>194</v>
@@ -4286,7 +4274,7 @@
         <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4330,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4354,13 +4342,13 @@
         <v>3089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4369,13 +4357,13 @@
         <v>9312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4384,13 +4372,13 @@
         <v>12401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4393,13 @@
         <v>11352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4420,13 +4408,13 @@
         <v>11395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -4435,13 +4423,13 @@
         <v>22747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4444,13 @@
         <v>147172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -4471,13 +4459,13 @@
         <v>223043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -4486,13 +4474,13 @@
         <v>370215</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4548,13 @@
         <v>19209</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -4575,13 +4563,13 @@
         <v>31395</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4590,13 +4578,13 @@
         <v>50604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4599,13 @@
         <v>36462</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -4626,13 +4614,13 @@
         <v>45859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -4641,13 +4629,13 @@
         <v>82321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4650,13 @@
         <v>503966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>623</v>
@@ -4677,13 +4665,13 @@
         <v>665721</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>1079</v>
@@ -4692,13 +4680,13 @@
         <v>1169687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4742,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4775,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDFFEB9-3531-42EB-8F40-378621BE1DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A54960-005E-4564-8D18-6DC2D47EFA51}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4792,7 +4780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4899,13 +4887,13 @@
         <v>1638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4920,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4929,13 +4917,13 @@
         <v>1638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4965,13 +4953,13 @@
         <v>1986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4980,13 +4968,13 @@
         <v>1986</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,10 +4989,10 @@
         <v>20050</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -5016,10 +5004,10 @@
         <v>21453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5031,13 +5019,13 @@
         <v>41503</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5093,13 @@
         <v>2555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5120,13 +5108,13 @@
         <v>2320</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5135,13 +5123,13 @@
         <v>4875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5144,13 @@
         <v>1691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5171,13 +5159,13 @@
         <v>7244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5186,13 +5174,13 @@
         <v>8936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>318</v>
+        <v>135</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5195,13 @@
         <v>110800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -5222,28 +5210,28 @@
         <v>140387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>251188</v>
+        <v>251187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5273,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5311,13 +5299,13 @@
         <v>4343</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5326,13 +5314,13 @@
         <v>2011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5341,13 +5329,13 @@
         <v>6354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5350,13 @@
         <v>4160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5377,13 +5365,13 @@
         <v>15492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5392,13 +5380,13 @@
         <v>19653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5401,13 @@
         <v>156437</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5428,13 +5416,13 @@
         <v>201660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -5443,13 +5431,13 @@
         <v>358097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5505,13 @@
         <v>1050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5532,13 +5520,13 @@
         <v>7296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5547,13 +5535,13 @@
         <v>8346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5556,13 @@
         <v>2552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5583,13 +5571,13 @@
         <v>8702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -5598,13 +5586,13 @@
         <v>11254</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5607,13 @@
         <v>111433</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -5634,13 +5622,13 @@
         <v>126599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>215</v>
@@ -5649,13 +5637,13 @@
         <v>238031</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,7 +5699,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5723,13 +5711,13 @@
         <v>791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -5738,13 +5726,13 @@
         <v>3842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5753,13 +5741,13 @@
         <v>4634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5762,13 @@
         <v>4784</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5789,13 +5777,13 @@
         <v>8049</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -5804,13 +5792,13 @@
         <v>12833</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5813,13 @@
         <v>169043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -5840,13 +5828,13 @@
         <v>230889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>373</v>
@@ -5855,13 +5843,13 @@
         <v>399933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5917,13 @@
         <v>10378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5944,13 +5932,13 @@
         <v>15468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5959,13 +5947,13 @@
         <v>25847</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,13 +5968,13 @@
         <v>13187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -5995,13 +5983,13 @@
         <v>41474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>49</v>
@@ -6010,13 +5998,13 @@
         <v>54661</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6019,13 @@
         <v>567762</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>609</v>
@@ -6049,10 +6037,10 @@
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>1209</v>
@@ -6061,13 +6049,13 @@
         <v>1288751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6111,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +6132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D1286B-66EE-47ED-BB99-8A321048C447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9AF77-F52E-4D9D-83F5-60BBBA08A9E2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6161,7 +6149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6274,7 +6262,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -6283,13 +6271,13 @@
         <v>1208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6298,13 +6286,13 @@
         <v>1208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>1091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6334,13 +6322,13 @@
         <v>2811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>83</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6349,13 +6337,13 @@
         <v>3901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,10 +6358,10 @@
         <v>28573</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6385,13 +6373,13 @@
         <v>41403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M6" s="7">
         <v>147</v>
@@ -6400,13 +6388,13 @@
         <v>69976</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6462,13 @@
         <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6489,13 +6477,13 @@
         <v>5250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -6504,13 +6492,13 @@
         <v>7066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6513,13 @@
         <v>5245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -6540,13 +6528,13 @@
         <v>6105</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -6558,10 +6546,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6564,13 @@
         <v>117916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -6591,13 +6579,13 @@
         <v>135864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>501</v>
@@ -6606,13 +6594,13 @@
         <v>253780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6668,13 @@
         <v>1750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6695,13 +6683,13 @@
         <v>8249</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6710,13 +6698,13 @@
         <v>9999</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6719,13 @@
         <v>4679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -6746,13 +6734,13 @@
         <v>13578</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>460</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -6761,13 +6749,13 @@
         <v>18258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6770,13 @@
         <v>167416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>410</v>
@@ -6797,13 +6785,13 @@
         <v>221068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -6812,13 +6800,13 @@
         <v>388484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>471</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6889,13 @@
         <v>4888</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6922,7 +6910,7 @@
         <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6952,13 +6940,13 @@
         <v>10400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -6970,10 +6958,10 @@
         <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,13 +6976,13 @@
         <v>145406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>266</v>
@@ -7003,13 +6991,13 @@
         <v>265827</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -7018,13 +7006,13 @@
         <v>411234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>350</v>
+        <v>493</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,7 +7068,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7092,13 +7080,13 @@
         <v>2698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>492</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7107,13 +7095,13 @@
         <v>7106</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>493</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>495</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -7122,10 +7110,10 @@
         <v>9804</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>497</v>
@@ -7146,10 +7134,10 @@
         <v>498</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7161,10 +7149,10 @@
         <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>500</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -7173,10 +7161,10 @@
         <v>14607</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>502</v>
@@ -7197,10 +7185,10 @@
         <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="H22" s="7">
         <v>495</v>
@@ -7209,13 +7197,13 @@
         <v>289701</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -7224,13 +7212,13 @@
         <v>504471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7286,13 @@
         <v>7208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>225</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -7313,13 +7301,13 @@
         <v>26700</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>512</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -7328,13 +7316,13 @@
         <v>33907</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>514</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7337,13 @@
         <v>15632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>261</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -7364,13 +7352,13 @@
         <v>44724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -7382,10 +7370,10 @@
         <v>518</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7388,13 @@
         <v>674081</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>1581</v>
@@ -7415,13 +7403,13 @@
         <v>953863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>74</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>2571</v>
@@ -7430,13 +7418,13 @@
         <v>1627944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7480,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
